--- a/hw/rev1/FlightComputer.xlsx
+++ b/hw/rev1/FlightComputer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\hw\rev1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5002B716-B10F-4606-9468-04109F5B2385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458EAC29-AC09-423D-9464-8B1D267C216F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="1065" windowWidth="25320" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FlightComputer" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="720">
   <si>
     <t>Reference</t>
   </si>
@@ -994,9 +994,6 @@
     <t>Ferrite Beads HI CUR CHIP BD 0603 18 OHMS 30%</t>
   </si>
   <si>
-    <t>Schottky Diodes &amp; Rectifiers SOT23.0.2A 30V Schottky</t>
-  </si>
-  <si>
     <t>AXT334124</t>
   </si>
   <si>
@@ -1225,10 +1222,6 @@
     <t>Tantalum Capacitors - Solid SMD 10uF 10V 20% 0603 1.6x0.85x0.65mm</t>
   </si>
   <si>
-    <t>Schottky Diodes &amp; Rectifiers SOT23.0.2A 30V Schottky</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Schottky Diodes &amp; Rectifiers TSLP-2-17 1A</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2145,9 +2138,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>TSLP-2-17</t>
-  </si>
-  <si>
     <t>8.7x3.6 mm</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2187,10 +2177,6 @@
   </si>
   <si>
     <t>DRAM SDRAM 256M 16MX16 TSOP</t>
-  </si>
-  <si>
-    <t>40x40x12 mm</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>PTS647SN50SMTR2LFS</t>
@@ -2361,6 +2347,94 @@
   </si>
   <si>
     <t>TEST-POINT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TSLP-2-17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOD-123</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSLP-2-17</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schottky Diodes &amp; Rectifiers 1A 30v</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schottky Diodes &amp; Rectifiers 0.2A 30V Schottky</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BAT54
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RB531SM-30FHT2R</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BAS3010S02LRHE6327XTSA1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MBR130T1G</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOT-23
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOD-523-2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x4x1.2 mm</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3993,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:G422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4023,855 +4097,855 @@
         <v>294</v>
       </c>
       <c r="G2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" t="s">
         <v>361</v>
-      </c>
-      <c r="G6" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" t="s">
         <v>361</v>
-      </c>
-      <c r="G7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G10" t="s">
         <v>384</v>
-      </c>
-      <c r="G10" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" t="s">
         <v>384</v>
-      </c>
-      <c r="G11" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F12" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" t="s">
         <v>352</v>
-      </c>
-      <c r="G12" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" t="s">
         <v>361</v>
-      </c>
-      <c r="G16" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F17" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" t="s">
         <v>361</v>
-      </c>
-      <c r="G17" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F25" t="s">
+        <v>363</v>
+      </c>
+      <c r="G25" t="s">
         <v>364</v>
-      </c>
-      <c r="G25" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G28" t="s">
         <v>375</v>
-      </c>
-      <c r="G28" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F29" t="s">
+        <v>377</v>
+      </c>
+      <c r="G29" t="s">
         <v>378</v>
-      </c>
-      <c r="G29" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F30" t="s">
+        <v>377</v>
+      </c>
+      <c r="G30" t="s">
         <v>378</v>
-      </c>
-      <c r="G30" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F31" t="s">
+        <v>379</v>
+      </c>
+      <c r="G31" t="s">
         <v>380</v>
-      </c>
-      <c r="G31" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G32" t="s">
         <v>380</v>
-      </c>
-      <c r="G32" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F54" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" t="s">
         <v>384</v>
-      </c>
-      <c r="G54" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -4879,69 +4953,69 @@
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F58" t="s">
+        <v>383</v>
+      </c>
+      <c r="G58" t="s">
         <v>384</v>
-      </c>
-      <c r="G58" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F60" t="s">
+        <v>383</v>
+      </c>
+      <c r="G60" t="s">
         <v>384</v>
-      </c>
-      <c r="G60" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D61" t="s">
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -4949,86 +5023,86 @@
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F63" t="s">
+        <v>379</v>
+      </c>
+      <c r="G63" t="s">
         <v>380</v>
-      </c>
-      <c r="G63" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D64" t="s">
         <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F64" t="s">
+        <v>381</v>
+      </c>
+      <c r="G64" t="s">
         <v>382</v>
-      </c>
-      <c r="G64" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F65" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F66" t="s">
+        <v>383</v>
+      </c>
+      <c r="G66" t="s">
         <v>384</v>
-      </c>
-      <c r="G66" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D67" t="s">
         <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -5036,491 +5110,491 @@
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F69" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" t="s">
         <v>384</v>
-      </c>
-      <c r="G69" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D71" t="s">
         <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F72" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F73" t="s">
+        <v>383</v>
+      </c>
+      <c r="G73" t="s">
         <v>384</v>
-      </c>
-      <c r="G73" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D74" t="s">
         <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F74" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G74" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D77" t="s">
         <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D83" t="s">
         <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F84" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E85" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F85" t="s">
+        <v>348</v>
+      </c>
+      <c r="G85" t="s">
         <v>349</v>
-      </c>
-      <c r="G85" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D86" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E86" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F86" t="s">
+        <v>348</v>
+      </c>
+      <c r="G86" t="s">
         <v>349</v>
-      </c>
-      <c r="G86" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D89" t="s">
         <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F90" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>
       </c>
       <c r="E92" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F93" t="s">
+        <v>360</v>
+      </c>
+      <c r="G93" t="s">
         <v>361</v>
-      </c>
-      <c r="G93" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F94" t="s">
+        <v>360</v>
+      </c>
+      <c r="G94" t="s">
         <v>361</v>
-      </c>
-      <c r="G94" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F95" t="s">
+        <v>360</v>
+      </c>
+      <c r="G95" t="s">
         <v>361</v>
-      </c>
-      <c r="G95" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F97" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D99" t="s">
         <v>45</v>
       </c>
       <c r="E99" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F99" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D101" t="s">
         <v>45</v>
       </c>
       <c r="E101" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F101" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.3">
@@ -5531,10 +5605,10 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.3">
@@ -5545,10 +5619,10 @@
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.3">
@@ -5559,10 +5633,10 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.3">
@@ -5573,10 +5647,10 @@
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.3">
@@ -5587,10 +5661,10 @@
         <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.3">
@@ -5601,10 +5675,10 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.3">
@@ -5615,10 +5689,10 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.3">
@@ -5629,10 +5703,10 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.3">
@@ -5643,10 +5717,10 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.3">
@@ -5657,10 +5731,10 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.3">
@@ -5671,13 +5745,13 @@
         <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F112" t="s">
+        <v>360</v>
+      </c>
+      <c r="G112" t="s">
         <v>361</v>
-      </c>
-      <c r="G112" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.3">
@@ -5688,10 +5762,10 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.3">
@@ -5702,10 +5776,10 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F114" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.3">
@@ -5716,10 +5790,10 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F115" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.3">
@@ -5730,10 +5804,10 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.3">
@@ -5744,10 +5818,10 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F117" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.3">
@@ -5758,10 +5832,10 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F118" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.3">
@@ -5772,10 +5846,10 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.3">
@@ -5786,10 +5860,10 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F120" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.3">
@@ -5800,10 +5874,10 @@
         <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F121" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.3">
@@ -5814,10 +5888,10 @@
         <v>295</v>
       </c>
       <c r="E122" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F122" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.3">
@@ -5828,27 +5902,27 @@
         <v>295</v>
       </c>
       <c r="E123" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F123" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" ht="33" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>29</v>
       </c>
       <c r="D124" t="s">
         <v>308</v>
       </c>
-      <c r="E124" t="s">
-        <v>664</v>
-      </c>
-      <c r="F124" t="s">
-        <v>309</v>
+      <c r="E124" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>717</v>
       </c>
       <c r="G124" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.3">
@@ -5859,30 +5933,30 @@
         <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>664</v>
+        <v>713</v>
       </c>
       <c r="F125" t="s">
         <v>309</v>
       </c>
       <c r="G125" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" ht="33" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>33</v>
       </c>
       <c r="D126" t="s">
         <v>32</v>
       </c>
-      <c r="E126" t="s">
-        <v>666</v>
-      </c>
-      <c r="F126" t="s">
-        <v>310</v>
+      <c r="E126" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>716</v>
       </c>
       <c r="G126" t="s">
-        <v>386</v>
+        <v>715</v>
       </c>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.3">
@@ -5893,13 +5967,13 @@
         <v>32</v>
       </c>
       <c r="E127" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F127" t="s">
         <v>310</v>
       </c>
       <c r="G127" t="s">
-        <v>314</v>
+        <v>715</v>
       </c>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.3">
@@ -5910,13 +5984,13 @@
         <v>32</v>
       </c>
       <c r="E128" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F128" t="s">
         <v>310</v>
       </c>
       <c r="G128" t="s">
-        <v>314</v>
+        <v>715</v>
       </c>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.3">
@@ -5927,13 +6001,13 @@
         <v>32</v>
       </c>
       <c r="E129" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F129" t="s">
         <v>310</v>
       </c>
       <c r="G129" t="s">
-        <v>314</v>
+        <v>715</v>
       </c>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.3">
@@ -5968,7 +6042,7 @@
         <v>311</v>
       </c>
       <c r="E133" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F133" t="s">
         <v>312</v>
@@ -5979,21 +6053,21 @@
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D134" t="s">
         <v>5</v>
       </c>
       <c r="F134" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G134" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
@@ -6001,7 +6075,7 @@
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -6009,7 +6083,7 @@
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -6017,58 +6091,58 @@
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D138" t="s">
         <v>44</v>
       </c>
       <c r="E138" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F138" t="s">
+        <v>314</v>
+      </c>
+      <c r="G138" t="s">
         <v>315</v>
-      </c>
-      <c r="G138" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D139" t="s">
         <v>58</v>
       </c>
       <c r="E139" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F139" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G139" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="140" spans="3:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D140" t="s">
         <v>59</v>
       </c>
       <c r="E140" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
@@ -6076,16 +6150,16 @@
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D142" t="s">
         <v>157</v>
       </c>
       <c r="F142" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G142" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.3">
@@ -6104,13 +6178,13 @@
         <v>195</v>
       </c>
       <c r="E144" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F144" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G144" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" spans="3:7" ht="33" x14ac:dyDescent="0.3">
@@ -6121,13 +6195,13 @@
         <v>264</v>
       </c>
       <c r="E145" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G145" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="3:7" ht="33" x14ac:dyDescent="0.3">
@@ -6138,166 +6212,166 @@
         <v>264</v>
       </c>
       <c r="E146" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G146" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F147" t="s">
+        <v>316</v>
+      </c>
+      <c r="G147" t="s">
         <v>317</v>
-      </c>
-      <c r="G147" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F148" t="s">
+        <v>316</v>
+      </c>
+      <c r="G148" t="s">
         <v>317</v>
-      </c>
-      <c r="G148" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F149" t="s">
+        <v>316</v>
+      </c>
+      <c r="G149" t="s">
         <v>317</v>
-      </c>
-      <c r="G149" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F150" t="s">
+        <v>316</v>
+      </c>
+      <c r="G150" t="s">
         <v>317</v>
-      </c>
-      <c r="G150" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F151" t="s">
+        <v>316</v>
+      </c>
+      <c r="G151" t="s">
         <v>317</v>
-      </c>
-      <c r="G151" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F152" t="s">
+        <v>316</v>
+      </c>
+      <c r="G152" t="s">
         <v>317</v>
-      </c>
-      <c r="G152" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F153" t="s">
+        <v>316</v>
+      </c>
+      <c r="G153" t="s">
         <v>317</v>
-      </c>
-      <c r="G153" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
       </c>
       <c r="E154" t="s">
-        <v>676</v>
+        <v>719</v>
       </c>
       <c r="F154" t="s">
+        <v>338</v>
+      </c>
+      <c r="G154" t="s">
         <v>339</v>
-      </c>
-      <c r="G154" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D155" t="s">
         <v>39</v>
       </c>
       <c r="E155" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F155" t="s">
+        <v>340</v>
+      </c>
+      <c r="G155" t="s">
         <v>341</v>
-      </c>
-      <c r="G155" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.3">
@@ -6308,13 +6382,13 @@
         <v>82</v>
       </c>
       <c r="E156" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F156" t="s">
+        <v>330</v>
+      </c>
+      <c r="G156" t="s">
         <v>331</v>
-      </c>
-      <c r="G156" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.3">
@@ -6325,13 +6399,13 @@
         <v>155</v>
       </c>
       <c r="E157" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F157" t="s">
+        <v>342</v>
+      </c>
+      <c r="G157" t="s">
         <v>343</v>
-      </c>
-      <c r="G157" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.3">
@@ -6339,16 +6413,16 @@
         <v>249</v>
       </c>
       <c r="D158" t="s">
+        <v>335</v>
+      </c>
+      <c r="E158" t="s">
+        <v>664</v>
+      </c>
+      <c r="F158" t="s">
         <v>336</v>
       </c>
-      <c r="E158" t="s">
-        <v>667</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>337</v>
-      </c>
-      <c r="G158" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.3">
@@ -6356,16 +6430,16 @@
         <v>17</v>
       </c>
       <c r="D159" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E159" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F159" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G159" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.3">
@@ -6379,7 +6453,7 @@
         <v>135</v>
       </c>
       <c r="G160" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.3">
@@ -6393,18 +6467,18 @@
         <v>133</v>
       </c>
       <c r="G161" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="162" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F162" t="s">
         <v>303</v>
@@ -6412,13 +6486,13 @@
     </row>
     <row r="163" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D163" t="s">
         <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F163" t="s">
         <v>300</v>
@@ -6426,13 +6500,13 @@
     </row>
     <row r="164" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D164" t="s">
         <v>15</v>
       </c>
       <c r="E164" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F164" t="s">
         <v>300</v>
@@ -6440,13 +6514,13 @@
     </row>
     <row r="165" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D165" t="s">
         <v>15</v>
       </c>
       <c r="E165" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F165" t="s">
         <v>300</v>
@@ -6454,13 +6528,13 @@
     </row>
     <row r="166" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F166" t="s">
         <v>300</v>
@@ -6468,13 +6542,13 @@
     </row>
     <row r="167" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
       </c>
       <c r="E167" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F167" t="s">
         <v>300</v>
@@ -6482,13 +6556,13 @@
     </row>
     <row r="168" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D168" t="s">
         <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F168" t="s">
         <v>300</v>
@@ -6496,13 +6570,13 @@
     </row>
     <row r="169" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D169" t="s">
         <v>15</v>
       </c>
       <c r="E169" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F169" t="s">
         <v>300</v>
@@ -6510,13 +6584,13 @@
     </row>
     <row r="170" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F170" t="s">
         <v>300</v>
@@ -6524,13 +6598,13 @@
     </row>
     <row r="171" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D171" t="s">
         <v>15</v>
       </c>
       <c r="E171" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F171" t="s">
         <v>300</v>
@@ -6538,7 +6612,7 @@
     </row>
     <row r="172" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D172" t="s">
         <v>16</v>
@@ -6546,7 +6620,7 @@
     </row>
     <row r="173" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
@@ -6554,13 +6628,13 @@
     </row>
     <row r="174" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D174" t="s">
         <v>15</v>
       </c>
       <c r="E174" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F174" t="s">
         <v>300</v>
@@ -6568,30 +6642,30 @@
     </row>
     <row r="175" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D175" t="s">
         <v>19</v>
       </c>
       <c r="E175" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F175" t="s">
         <v>302</v>
       </c>
       <c r="G175" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="176" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
       </c>
       <c r="E176" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F176" t="s">
         <v>300</v>
@@ -6599,13 +6673,13 @@
     </row>
     <row r="177" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
       </c>
       <c r="E177" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F177" t="s">
         <v>300</v>
@@ -6613,13 +6687,13 @@
     </row>
     <row r="178" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D178" t="s">
         <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F178" t="s">
         <v>300</v>
@@ -6627,13 +6701,13 @@
     </row>
     <row r="179" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D179" t="s">
         <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F179" t="s">
         <v>298</v>
@@ -6644,13 +6718,13 @@
     </row>
     <row r="180" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D180" t="s">
         <v>35</v>
       </c>
       <c r="E180" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F180" t="s">
         <v>306</v>
@@ -6658,13 +6732,13 @@
     </row>
     <row r="181" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D181" t="s">
         <v>27</v>
       </c>
       <c r="E181" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F181" t="s">
         <v>298</v>
@@ -6675,30 +6749,30 @@
     </row>
     <row r="182" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D182" t="s">
         <v>38</v>
       </c>
       <c r="E182" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F182" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G182" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D183" t="s">
         <v>43</v>
       </c>
       <c r="E183" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F183" t="s">
         <v>305</v>
@@ -6706,13 +6780,13 @@
     </row>
     <row r="184" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D184" t="s">
         <v>15</v>
       </c>
       <c r="E184" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F184" t="s">
         <v>300</v>
@@ -6720,13 +6794,13 @@
     </row>
     <row r="185" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D185" t="s">
         <v>15</v>
       </c>
       <c r="E185" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F185" t="s">
         <v>300</v>
@@ -6734,13 +6808,13 @@
     </row>
     <row r="186" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D186" t="s">
         <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F186" t="s">
         <v>300</v>
@@ -6748,13 +6822,13 @@
     </row>
     <row r="187" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
       </c>
       <c r="E187" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F187" t="s">
         <v>300</v>
@@ -6762,13 +6836,13 @@
     </row>
     <row r="188" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D188" t="s">
         <v>15</v>
       </c>
       <c r="E188" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F188" t="s">
         <v>300</v>
@@ -6776,13 +6850,13 @@
     </row>
     <row r="189" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D189" t="s">
         <v>15</v>
       </c>
       <c r="E189" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F189" t="s">
         <v>300</v>
@@ -6790,13 +6864,13 @@
     </row>
     <row r="190" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D190" t="s">
         <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F190" t="s">
         <v>300</v>
@@ -6804,47 +6878,47 @@
     </row>
     <row r="191" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D191" t="s">
         <v>19</v>
       </c>
       <c r="E191" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F191" t="s">
         <v>302</v>
       </c>
       <c r="G191" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="192" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D192" t="s">
         <v>19</v>
       </c>
       <c r="E192" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F192" t="s">
         <v>302</v>
       </c>
       <c r="G192" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="193" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
       </c>
       <c r="E193" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F193" t="s">
         <v>300</v>
@@ -6852,13 +6926,13 @@
     </row>
     <row r="194" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D194" t="s">
         <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F194" t="s">
         <v>300</v>
@@ -6866,13 +6940,13 @@
     </row>
     <row r="195" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D195" t="s">
         <v>15</v>
       </c>
       <c r="E195" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F195" t="s">
         <v>300</v>
@@ -6880,13 +6954,13 @@
     </row>
     <row r="196" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D196" t="s">
         <v>15</v>
       </c>
       <c r="E196" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F196" t="s">
         <v>300</v>
@@ -6894,47 +6968,47 @@
     </row>
     <row r="197" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D197" t="s">
         <v>19</v>
       </c>
       <c r="E197" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F197" t="s">
         <v>302</v>
       </c>
       <c r="G197" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="198" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D198" t="s">
         <v>19</v>
       </c>
       <c r="E198" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F198" t="s">
         <v>302</v>
       </c>
       <c r="G198" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="199" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D199" t="s">
         <v>15</v>
       </c>
       <c r="E199" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F199" t="s">
         <v>300</v>
@@ -6942,13 +7016,13 @@
     </row>
     <row r="200" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D200" t="s">
         <v>15</v>
       </c>
       <c r="E200" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F200" t="s">
         <v>300</v>
@@ -6956,13 +7030,13 @@
     </row>
     <row r="201" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
       </c>
       <c r="E201" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F201" t="s">
         <v>300</v>
@@ -6970,13 +7044,13 @@
     </row>
     <row r="202" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D202" t="s">
         <v>15</v>
       </c>
       <c r="E202" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F202" t="s">
         <v>300</v>
@@ -6984,13 +7058,13 @@
     </row>
     <row r="203" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D203" t="s">
         <v>15</v>
       </c>
       <c r="E203" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F203" t="s">
         <v>300</v>
@@ -6998,13 +7072,13 @@
     </row>
     <row r="204" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D204" t="s">
         <v>15</v>
       </c>
       <c r="E204" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F204" t="s">
         <v>300</v>
@@ -7012,13 +7086,13 @@
     </row>
     <row r="205" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D205" t="s">
         <v>15</v>
       </c>
       <c r="E205" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F205" t="s">
         <v>300</v>
@@ -7026,13 +7100,13 @@
     </row>
     <row r="206" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D206" t="s">
         <v>15</v>
       </c>
       <c r="E206" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F206" t="s">
         <v>300</v>
@@ -7040,30 +7114,30 @@
     </row>
     <row r="207" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D207" t="s">
         <v>19</v>
       </c>
       <c r="E207" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F207" t="s">
         <v>302</v>
       </c>
       <c r="G207" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="208" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D208" t="s">
         <v>15</v>
       </c>
       <c r="E208" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F208" t="s">
         <v>300</v>
@@ -7071,13 +7145,13 @@
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D209" t="s">
         <v>15</v>
       </c>
       <c r="E209" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F209" t="s">
         <v>300</v>
@@ -7085,13 +7159,13 @@
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D210" t="s">
         <v>15</v>
       </c>
       <c r="E210" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F210" t="s">
         <v>300</v>
@@ -7099,13 +7173,13 @@
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D211" t="s">
         <v>15</v>
       </c>
       <c r="E211" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F211" t="s">
         <v>300</v>
@@ -7113,13 +7187,13 @@
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D212" t="s">
         <v>15</v>
       </c>
       <c r="E212" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F212" t="s">
         <v>300</v>
@@ -7127,13 +7201,13 @@
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D213" t="s">
         <v>15</v>
       </c>
       <c r="E213" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F213" t="s">
         <v>300</v>
@@ -7141,13 +7215,13 @@
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D214" t="s">
         <v>15</v>
       </c>
       <c r="E214" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F214" t="s">
         <v>300</v>
@@ -7155,13 +7229,13 @@
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D215" t="s">
         <v>15</v>
       </c>
       <c r="E215" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F215" t="s">
         <v>300</v>
@@ -7169,13 +7243,13 @@
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D216" t="s">
         <v>15</v>
       </c>
       <c r="E216" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F216" t="s">
         <v>300</v>
@@ -7183,13 +7257,13 @@
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D217" t="s">
         <v>15</v>
       </c>
       <c r="E217" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F217" t="s">
         <v>300</v>
@@ -7197,13 +7271,13 @@
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D218" t="s">
         <v>15</v>
       </c>
       <c r="E218" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F218" t="s">
         <v>300</v>
@@ -7211,13 +7285,13 @@
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D219" t="s">
         <v>15</v>
       </c>
       <c r="E219" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F219" t="s">
         <v>300</v>
@@ -7225,13 +7299,13 @@
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D220" t="s">
         <v>15</v>
       </c>
       <c r="E220" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F220" t="s">
         <v>300</v>
@@ -7239,13 +7313,13 @@
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D221" t="s">
         <v>15</v>
       </c>
       <c r="E221" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F221" t="s">
         <v>300</v>
@@ -7253,13 +7327,13 @@
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D222" t="s">
         <v>15</v>
       </c>
       <c r="E222" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F222" t="s">
         <v>300</v>
@@ -7267,13 +7341,13 @@
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D223" t="s">
         <v>15</v>
       </c>
       <c r="E223" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F223" t="s">
         <v>300</v>
@@ -7281,13 +7355,13 @@
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D224" t="s">
         <v>15</v>
       </c>
       <c r="E224" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F224" t="s">
         <v>300</v>
@@ -7295,13 +7369,13 @@
     </row>
     <row r="225" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D225" t="s">
         <v>15</v>
       </c>
       <c r="E225" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F225" t="s">
         <v>300</v>
@@ -7309,13 +7383,13 @@
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D226" t="s">
         <v>15</v>
       </c>
       <c r="E226" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F226" t="s">
         <v>300</v>
@@ -7323,13 +7397,13 @@
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D227" t="s">
         <v>15</v>
       </c>
       <c r="E227" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F227" t="s">
         <v>300</v>
@@ -7337,13 +7411,13 @@
     </row>
     <row r="228" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D228" t="s">
         <v>15</v>
       </c>
       <c r="E228" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F228" t="s">
         <v>300</v>
@@ -7351,13 +7425,13 @@
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D229" t="s">
         <v>15</v>
       </c>
       <c r="E229" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F229" t="s">
         <v>300</v>
@@ -7365,13 +7439,13 @@
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D230" t="s">
         <v>15</v>
       </c>
       <c r="E230" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F230" t="s">
         <v>300</v>
@@ -7379,13 +7453,13 @@
     </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D231" t="s">
         <v>15</v>
       </c>
       <c r="E231" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F231" t="s">
         <v>300</v>
@@ -7393,13 +7467,13 @@
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D232" t="s">
         <v>15</v>
       </c>
       <c r="E232" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F232" t="s">
         <v>300</v>
@@ -7407,13 +7481,13 @@
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D233" t="s">
         <v>15</v>
       </c>
       <c r="E233" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F233" t="s">
         <v>300</v>
@@ -7421,13 +7495,13 @@
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D234" t="s">
         <v>15</v>
       </c>
       <c r="E234" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F234" t="s">
         <v>300</v>
@@ -7435,13 +7509,13 @@
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D235" t="s">
         <v>15</v>
       </c>
       <c r="E235" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F235" t="s">
         <v>300</v>
@@ -7449,13 +7523,13 @@
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D236" t="s">
         <v>15</v>
       </c>
       <c r="E236" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F236" t="s">
         <v>300</v>
@@ -7463,13 +7537,13 @@
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D237" t="s">
         <v>15</v>
       </c>
       <c r="E237" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F237" t="s">
         <v>300</v>
@@ -7477,13 +7551,13 @@
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D238" t="s">
         <v>15</v>
       </c>
       <c r="E238" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F238" t="s">
         <v>300</v>
@@ -7491,13 +7565,13 @@
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
       </c>
       <c r="E239" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F239" t="s">
         <v>300</v>
@@ -7505,13 +7579,13 @@
     </row>
     <row r="240" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D240" t="s">
         <v>15</v>
       </c>
       <c r="E240" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F240" t="s">
         <v>300</v>
@@ -7519,13 +7593,13 @@
     </row>
     <row r="241" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D241" t="s">
         <v>15</v>
       </c>
       <c r="E241" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F241" t="s">
         <v>300</v>
@@ -7533,13 +7607,13 @@
     </row>
     <row r="242" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D242" t="s">
         <v>15</v>
       </c>
       <c r="E242" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F242" t="s">
         <v>300</v>
@@ -7547,13 +7621,13 @@
     </row>
     <row r="243" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D243" t="s">
         <v>15</v>
       </c>
       <c r="E243" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F243" t="s">
         <v>300</v>
@@ -7561,13 +7635,13 @@
     </row>
     <row r="244" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D244" t="s">
         <v>15</v>
       </c>
       <c r="E244" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F244" t="s">
         <v>300</v>
@@ -7575,13 +7649,13 @@
     </row>
     <row r="245" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D245" t="s">
         <v>15</v>
       </c>
       <c r="E245" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F245" t="s">
         <v>300</v>
@@ -7589,13 +7663,13 @@
     </row>
     <row r="246" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D246" t="s">
         <v>15</v>
       </c>
       <c r="E246" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F246" t="s">
         <v>300</v>
@@ -7603,13 +7677,13 @@
     </row>
     <row r="247" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D247" t="s">
         <v>15</v>
       </c>
       <c r="E247" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F247" t="s">
         <v>300</v>
@@ -7617,13 +7691,13 @@
     </row>
     <row r="248" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D248" t="s">
         <v>15</v>
       </c>
       <c r="E248" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F248" t="s">
         <v>300</v>
@@ -7631,13 +7705,13 @@
     </row>
     <row r="249" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D249" t="s">
         <v>15</v>
       </c>
       <c r="E249" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F249" t="s">
         <v>300</v>
@@ -7645,13 +7719,13 @@
     </row>
     <row r="250" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D250" t="s">
         <v>15</v>
       </c>
       <c r="E250" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F250" t="s">
         <v>300</v>
@@ -7659,13 +7733,13 @@
     </row>
     <row r="251" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D251" t="s">
         <v>15</v>
       </c>
       <c r="E251" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F251" t="s">
         <v>300</v>
@@ -7673,13 +7747,13 @@
     </row>
     <row r="252" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D252" t="s">
         <v>15</v>
       </c>
       <c r="E252" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F252" t="s">
         <v>300</v>
@@ -7687,13 +7761,13 @@
     </row>
     <row r="253" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D253" t="s">
         <v>15</v>
       </c>
       <c r="E253" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F253" t="s">
         <v>300</v>
@@ -7701,13 +7775,13 @@
     </row>
     <row r="254" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D254" t="s">
         <v>15</v>
       </c>
       <c r="E254" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F254" t="s">
         <v>300</v>
@@ -7715,13 +7789,13 @@
     </row>
     <row r="255" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D255" t="s">
         <v>15</v>
       </c>
       <c r="E255" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F255" t="s">
         <v>300</v>
@@ -7729,13 +7803,13 @@
     </row>
     <row r="256" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D256" t="s">
         <v>60</v>
       </c>
       <c r="E256" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F256" t="s">
         <v>299</v>
@@ -7746,13 +7820,13 @@
     </row>
     <row r="257" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D257" t="s">
         <v>60</v>
       </c>
       <c r="E257" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F257" t="s">
         <v>299</v>
@@ -7763,13 +7837,13 @@
     </row>
     <row r="258" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D258" t="s">
         <v>15</v>
       </c>
       <c r="E258" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F258" t="s">
         <v>300</v>
@@ -7777,13 +7851,13 @@
     </row>
     <row r="259" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D259" t="s">
         <v>15</v>
       </c>
       <c r="E259" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F259" t="s">
         <v>300</v>
@@ -7791,13 +7865,13 @@
     </row>
     <row r="260" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C260" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D260" t="s">
         <v>15</v>
       </c>
       <c r="E260" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F260" t="s">
         <v>300</v>
@@ -7811,7 +7885,7 @@
         <v>15</v>
       </c>
       <c r="E261" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F261" t="s">
         <v>300</v>
@@ -7825,7 +7899,7 @@
         <v>15</v>
       </c>
       <c r="E262" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F262" t="s">
         <v>300</v>
@@ -7839,7 +7913,7 @@
         <v>15</v>
       </c>
       <c r="E263" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F263" t="s">
         <v>300</v>
@@ -7853,7 +7927,7 @@
         <v>60</v>
       </c>
       <c r="E264" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F264" t="s">
         <v>299</v>
@@ -7870,7 +7944,7 @@
         <v>60</v>
       </c>
       <c r="E265" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F265" t="s">
         <v>299</v>
@@ -7887,7 +7961,7 @@
         <v>60</v>
       </c>
       <c r="E266" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F266" t="s">
         <v>299</v>
@@ -7904,7 +7978,7 @@
         <v>60</v>
       </c>
       <c r="E267" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F267" t="s">
         <v>299</v>
@@ -7921,7 +7995,7 @@
         <v>15</v>
       </c>
       <c r="E268" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F268" t="s">
         <v>300</v>
@@ -7935,7 +8009,7 @@
         <v>15</v>
       </c>
       <c r="E269" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F269" t="s">
         <v>300</v>
@@ -7949,7 +8023,7 @@
         <v>15</v>
       </c>
       <c r="E270" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F270" t="s">
         <v>300</v>
@@ -7963,7 +8037,7 @@
         <v>15</v>
       </c>
       <c r="E271" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F271" t="s">
         <v>300</v>
@@ -7977,7 +8051,7 @@
         <v>15</v>
       </c>
       <c r="E272" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F272" t="s">
         <v>300</v>
@@ -7991,7 +8065,7 @@
         <v>15</v>
       </c>
       <c r="E273" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F273" t="s">
         <v>300</v>
@@ -8005,7 +8079,7 @@
         <v>14</v>
       </c>
       <c r="E274" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F274" t="s">
         <v>303</v>
@@ -8019,7 +8093,7 @@
         <v>91</v>
       </c>
       <c r="E275" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F275" t="s">
         <v>296</v>
@@ -8036,7 +8110,7 @@
         <v>27</v>
       </c>
       <c r="E276" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F276" t="s">
         <v>298</v>
@@ -8053,7 +8127,7 @@
         <v>14</v>
       </c>
       <c r="E277" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F277" t="s">
         <v>303</v>
@@ -8064,16 +8138,16 @@
         <v>88</v>
       </c>
       <c r="D278" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E278" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F278" t="s">
         <v>301</v>
       </c>
       <c r="G278" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="279" spans="3:7" x14ac:dyDescent="0.3">
@@ -8081,16 +8155,16 @@
         <v>89</v>
       </c>
       <c r="D279" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E279" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F279" t="s">
         <v>301</v>
       </c>
       <c r="G279" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="280" spans="3:7" x14ac:dyDescent="0.3">
@@ -8098,16 +8172,16 @@
         <v>94</v>
       </c>
       <c r="D280" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E280" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F280" t="s">
         <v>301</v>
       </c>
       <c r="G280" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="281" spans="3:7" x14ac:dyDescent="0.3">
@@ -8118,7 +8192,7 @@
         <v>14</v>
       </c>
       <c r="E281" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F281" t="s">
         <v>303</v>
@@ -8132,7 +8206,7 @@
         <v>96</v>
       </c>
       <c r="E282" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F282" t="s">
         <v>304</v>
@@ -8146,7 +8220,7 @@
         <v>15</v>
       </c>
       <c r="E283" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F283" t="s">
         <v>300</v>
@@ -8160,7 +8234,7 @@
         <v>14</v>
       </c>
       <c r="E284" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F284" t="s">
         <v>303</v>
@@ -8174,7 +8248,7 @@
         <v>15</v>
       </c>
       <c r="E285" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F285" t="s">
         <v>300</v>
@@ -8188,13 +8262,13 @@
         <v>84</v>
       </c>
       <c r="E286" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F286" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G286" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="287" spans="3:7" x14ac:dyDescent="0.3">
@@ -8205,7 +8279,7 @@
         <v>15</v>
       </c>
       <c r="E287" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F287" t="s">
         <v>300</v>
@@ -8219,7 +8293,7 @@
         <v>14</v>
       </c>
       <c r="E288" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F288" t="s">
         <v>303</v>
@@ -8233,7 +8307,7 @@
         <v>27</v>
       </c>
       <c r="E289" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F289" t="s">
         <v>298</v>
@@ -8250,13 +8324,13 @@
         <v>84</v>
       </c>
       <c r="E290" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F290" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G290" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="291" spans="3:7" x14ac:dyDescent="0.3">
@@ -8267,13 +8341,13 @@
         <v>86</v>
       </c>
       <c r="E291" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F291" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G291" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="292" spans="3:7" x14ac:dyDescent="0.3">
@@ -8284,7 +8358,7 @@
         <v>15</v>
       </c>
       <c r="E292" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F292" t="s">
         <v>300</v>
@@ -8298,13 +8372,13 @@
         <v>86</v>
       </c>
       <c r="E293" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F293" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G293" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="294" spans="3:7" x14ac:dyDescent="0.3">
@@ -8315,7 +8389,7 @@
         <v>14</v>
       </c>
       <c r="E294" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F294" t="s">
         <v>303</v>
@@ -8329,13 +8403,13 @@
         <v>119</v>
       </c>
       <c r="E295" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F295" t="s">
         <v>301</v>
       </c>
       <c r="G295" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="296" spans="3:7" x14ac:dyDescent="0.3">
@@ -8346,7 +8420,7 @@
         <v>15</v>
       </c>
       <c r="E296" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F296" t="s">
         <v>300</v>
@@ -8360,7 +8434,7 @@
         <v>14</v>
       </c>
       <c r="E297" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F297" t="s">
         <v>303</v>
@@ -8374,7 +8448,7 @@
         <v>116</v>
       </c>
       <c r="E298" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F298" t="s">
         <v>307</v>
@@ -8388,13 +8462,13 @@
         <v>119</v>
       </c>
       <c r="E299" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F299" t="s">
         <v>301</v>
       </c>
       <c r="G299" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="300" spans="3:7" x14ac:dyDescent="0.3">
@@ -8405,13 +8479,13 @@
         <v>114</v>
       </c>
       <c r="E300" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F300" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G300" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="301" spans="3:7" x14ac:dyDescent="0.3">
@@ -8422,7 +8496,7 @@
         <v>27</v>
       </c>
       <c r="E301" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F301" t="s">
         <v>298</v>
@@ -8439,7 +8513,7 @@
         <v>15</v>
       </c>
       <c r="E302" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F302" t="s">
         <v>300</v>
@@ -8453,7 +8527,7 @@
         <v>15</v>
       </c>
       <c r="E303" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F303" t="s">
         <v>300</v>
@@ -8467,7 +8541,7 @@
         <v>15</v>
       </c>
       <c r="E304" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F304" t="s">
         <v>300</v>
@@ -8481,7 +8555,7 @@
         <v>15</v>
       </c>
       <c r="E305" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F305" t="s">
         <v>300</v>
@@ -8495,7 +8569,7 @@
         <v>15</v>
       </c>
       <c r="E306" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F306" t="s">
         <v>300</v>
@@ -8509,7 +8583,7 @@
         <v>15</v>
       </c>
       <c r="E307" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F307" t="s">
         <v>300</v>
@@ -8523,7 +8597,7 @@
         <v>15</v>
       </c>
       <c r="E308" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F308" t="s">
         <v>300</v>
@@ -8553,7 +8627,7 @@
         <v>15</v>
       </c>
       <c r="E311" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F311" t="s">
         <v>300</v>
@@ -8567,7 +8641,7 @@
         <v>15</v>
       </c>
       <c r="E312" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F312" t="s">
         <v>300</v>
@@ -8581,7 +8655,7 @@
         <v>15</v>
       </c>
       <c r="E313" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F313" t="s">
         <v>300</v>
@@ -8595,7 +8669,7 @@
         <v>15</v>
       </c>
       <c r="E314" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F314" t="s">
         <v>300</v>
@@ -8609,7 +8683,7 @@
         <v>15</v>
       </c>
       <c r="E315" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F315" t="s">
         <v>300</v>
@@ -8623,7 +8697,7 @@
         <v>15</v>
       </c>
       <c r="E316" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F316" t="s">
         <v>300</v>
@@ -8637,7 +8711,7 @@
         <v>15</v>
       </c>
       <c r="E317" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F317" t="s">
         <v>300</v>
@@ -8651,13 +8725,13 @@
         <v>119</v>
       </c>
       <c r="E318" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F318" t="s">
         <v>301</v>
       </c>
       <c r="G318" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="319" spans="3:7" x14ac:dyDescent="0.3">
@@ -8668,13 +8742,13 @@
         <v>119</v>
       </c>
       <c r="E319" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F319" t="s">
         <v>301</v>
       </c>
       <c r="G319" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="320" spans="3:7" x14ac:dyDescent="0.3">
@@ -8685,13 +8759,13 @@
         <v>119</v>
       </c>
       <c r="E320" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F320" t="s">
         <v>301</v>
       </c>
       <c r="G320" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="321" spans="3:7" x14ac:dyDescent="0.3">
@@ -8702,13 +8776,13 @@
         <v>119</v>
       </c>
       <c r="E321" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F321" t="s">
         <v>301</v>
       </c>
       <c r="G321" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="322" spans="3:7" x14ac:dyDescent="0.3">
@@ -8719,7 +8793,7 @@
         <v>14</v>
       </c>
       <c r="E322" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F322" t="s">
         <v>303</v>
@@ -8733,7 +8807,7 @@
         <v>14</v>
       </c>
       <c r="E323" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F323" t="s">
         <v>303</v>
@@ -8747,7 +8821,7 @@
         <v>14</v>
       </c>
       <c r="E324" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F324" t="s">
         <v>303</v>
@@ -8761,7 +8835,7 @@
         <v>14</v>
       </c>
       <c r="E325" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F325" t="s">
         <v>303</v>
@@ -8775,13 +8849,13 @@
         <v>119</v>
       </c>
       <c r="E326" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F326" t="s">
         <v>301</v>
       </c>
       <c r="G326" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="327" spans="3:7" x14ac:dyDescent="0.3">
@@ -8792,13 +8866,13 @@
         <v>119</v>
       </c>
       <c r="E327" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F327" t="s">
         <v>301</v>
       </c>
       <c r="G327" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="328" spans="3:7" x14ac:dyDescent="0.3">
@@ -8809,13 +8883,13 @@
         <v>119</v>
       </c>
       <c r="E328" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F328" t="s">
         <v>301</v>
       </c>
       <c r="G328" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="329" spans="3:7" x14ac:dyDescent="0.3">
@@ -8826,13 +8900,13 @@
         <v>119</v>
       </c>
       <c r="E329" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F329" t="s">
         <v>301</v>
       </c>
       <c r="G329" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="330" spans="3:7" x14ac:dyDescent="0.3">
@@ -8843,7 +8917,7 @@
         <v>14</v>
       </c>
       <c r="E330" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F330" t="s">
         <v>303</v>
@@ -8857,7 +8931,7 @@
         <v>14</v>
       </c>
       <c r="E331" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F331" t="s">
         <v>303</v>
@@ -8871,7 +8945,7 @@
         <v>14</v>
       </c>
       <c r="E332" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F332" t="s">
         <v>303</v>
@@ -8885,7 +8959,7 @@
         <v>14</v>
       </c>
       <c r="E333" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F333" t="s">
         <v>303</v>
@@ -8899,13 +8973,13 @@
         <v>119</v>
       </c>
       <c r="E334" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F334" t="s">
         <v>301</v>
       </c>
       <c r="G334" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="335" spans="3:7" x14ac:dyDescent="0.3">
@@ -8916,7 +8990,7 @@
         <v>14</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F335" t="s">
         <v>303</v>
@@ -8930,7 +9004,7 @@
         <v>14</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F336" t="s">
         <v>303</v>
@@ -8944,7 +9018,7 @@
         <v>14</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F337" t="s">
         <v>303</v>
@@ -8958,7 +9032,7 @@
         <v>15</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F338" t="s">
         <v>300</v>
@@ -8972,7 +9046,7 @@
         <v>15</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F339" t="s">
         <v>300</v>
@@ -8986,7 +9060,7 @@
         <v>15</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F340" t="s">
         <v>300</v>
@@ -9000,7 +9074,7 @@
         <v>15</v>
       </c>
       <c r="E341" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F341" t="s">
         <v>300</v>
@@ -9014,7 +9088,7 @@
         <v>15</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F342" t="s">
         <v>300</v>
@@ -9028,7 +9102,7 @@
         <v>15</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F343" t="s">
         <v>300</v>
@@ -9042,7 +9116,7 @@
         <v>14</v>
       </c>
       <c r="E344" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F344" t="s">
         <v>303</v>
@@ -9056,13 +9130,13 @@
         <v>19</v>
       </c>
       <c r="E345" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F345" t="s">
         <v>302</v>
       </c>
       <c r="G345" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="346" spans="3:7" x14ac:dyDescent="0.3">
@@ -9081,7 +9155,7 @@
         <v>14</v>
       </c>
       <c r="E347" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F347" t="s">
         <v>303</v>
@@ -9095,13 +9169,13 @@
         <v>119</v>
       </c>
       <c r="E348" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F348" t="s">
         <v>301</v>
       </c>
       <c r="G348" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="349" spans="3:7" x14ac:dyDescent="0.3">
@@ -9112,7 +9186,7 @@
         <v>14</v>
       </c>
       <c r="E349" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F349" t="s">
         <v>303</v>
@@ -9126,13 +9200,13 @@
         <v>19</v>
       </c>
       <c r="E350" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F350" t="s">
         <v>302</v>
       </c>
       <c r="G350" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="351" spans="3:7" x14ac:dyDescent="0.3">
@@ -9143,13 +9217,13 @@
         <v>19</v>
       </c>
       <c r="E351" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F351" t="s">
         <v>302</v>
       </c>
       <c r="G351" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="352" spans="3:7" x14ac:dyDescent="0.3">
@@ -9160,13 +9234,13 @@
         <v>19</v>
       </c>
       <c r="E352" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F352" t="s">
         <v>302</v>
       </c>
       <c r="G352" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="353" spans="3:7" x14ac:dyDescent="0.3">
@@ -9177,13 +9251,13 @@
         <v>19</v>
       </c>
       <c r="E353" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F353" t="s">
         <v>302</v>
       </c>
       <c r="G353" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="354" spans="3:7" x14ac:dyDescent="0.3">
@@ -9202,13 +9276,13 @@
         <v>114</v>
       </c>
       <c r="E355" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F355" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G355" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="356" spans="3:7" x14ac:dyDescent="0.3">
@@ -9227,13 +9301,13 @@
         <v>114</v>
       </c>
       <c r="E357" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F357" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G357" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="358" spans="3:7" x14ac:dyDescent="0.3">
@@ -9244,13 +9318,13 @@
         <v>114</v>
       </c>
       <c r="E358" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F358" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G358" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="359" spans="3:7" x14ac:dyDescent="0.3">
@@ -9285,13 +9359,13 @@
         <v>114</v>
       </c>
       <c r="E362" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F362" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G362" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="363" spans="3:7" x14ac:dyDescent="0.3">
@@ -9302,13 +9376,13 @@
         <v>114</v>
       </c>
       <c r="E363" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F363" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G363" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="364" spans="3:7" x14ac:dyDescent="0.3">
@@ -9319,13 +9393,13 @@
         <v>114</v>
       </c>
       <c r="E364" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F364" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G364" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="365" spans="3:7" x14ac:dyDescent="0.3">
@@ -9336,13 +9410,13 @@
         <v>114</v>
       </c>
       <c r="E365" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F365" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G365" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="366" spans="3:7" x14ac:dyDescent="0.3">
@@ -9353,13 +9427,13 @@
         <v>114</v>
       </c>
       <c r="E366" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F366" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G366" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="367" spans="3:7" x14ac:dyDescent="0.3">
@@ -9370,7 +9444,7 @@
         <v>15</v>
       </c>
       <c r="E367" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F367" t="s">
         <v>300</v>
@@ -9384,13 +9458,13 @@
         <v>19</v>
       </c>
       <c r="E368" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F368" t="s">
         <v>302</v>
       </c>
       <c r="G368" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="369" spans="3:7" x14ac:dyDescent="0.3">
@@ -9401,7 +9475,7 @@
         <v>269</v>
       </c>
       <c r="E369" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F369" t="s">
         <v>299</v>
@@ -9418,7 +9492,7 @@
         <v>15</v>
       </c>
       <c r="E370" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F370" t="s">
         <v>300</v>
@@ -9432,7 +9506,7 @@
         <v>15</v>
       </c>
       <c r="E371" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F371" t="s">
         <v>300</v>
@@ -9446,7 +9520,7 @@
         <v>15</v>
       </c>
       <c r="E372" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F372" t="s">
         <v>300</v>
@@ -9460,7 +9534,7 @@
         <v>15</v>
       </c>
       <c r="E373" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F373" t="s">
         <v>300</v>
@@ -9474,7 +9548,7 @@
         <v>15</v>
       </c>
       <c r="E374" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F374" t="s">
         <v>300</v>
@@ -9488,7 +9562,7 @@
         <v>15</v>
       </c>
       <c r="E375" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F375" t="s">
         <v>300</v>
@@ -9502,7 +9576,7 @@
         <v>15</v>
       </c>
       <c r="E376" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F376" t="s">
         <v>300</v>
@@ -9516,7 +9590,7 @@
         <v>15</v>
       </c>
       <c r="E377" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F377" t="s">
         <v>300</v>
@@ -9524,155 +9598,155 @@
     </row>
     <row r="378" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C378" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D378" t="s">
         <v>170</v>
       </c>
       <c r="E378" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F378" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G378" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="379" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C379" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D379" t="s">
         <v>170</v>
       </c>
       <c r="E379" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F379" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G379" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="380" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C380" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D380" t="s">
         <v>170</v>
       </c>
       <c r="E380" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F380" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G380" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="381" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C381" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D381" t="s">
         <v>170</v>
       </c>
       <c r="E381" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F381" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G381" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="382" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C382" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D382" t="s">
         <v>170</v>
       </c>
       <c r="E382" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F382" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G382" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="383" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C383" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D383" t="s">
         <v>170</v>
       </c>
       <c r="E383" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F383" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G383" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="384" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C384" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D384" t="s">
         <v>170</v>
       </c>
       <c r="E384" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F384" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G384" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="385" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C385" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D385" t="s">
         <v>170</v>
       </c>
       <c r="E385" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F385" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G385" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="386" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C386" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D386" t="s">
         <v>170</v>
       </c>
       <c r="E386" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F386" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G386" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="387" spans="3:7" x14ac:dyDescent="0.3">
@@ -9683,7 +9757,7 @@
         <v>170</v>
       </c>
       <c r="F387" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="388" spans="3:7" x14ac:dyDescent="0.3">
@@ -9694,7 +9768,7 @@
         <v>170</v>
       </c>
       <c r="F388" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="389" spans="3:7" x14ac:dyDescent="0.3">
@@ -9702,115 +9776,115 @@
         <v>41</v>
       </c>
       <c r="D389" t="s">
+        <v>318</v>
+      </c>
+      <c r="E389" t="s">
+        <v>658</v>
+      </c>
+      <c r="F389" t="s">
         <v>319</v>
       </c>
-      <c r="E389" t="s">
-        <v>660</v>
-      </c>
-      <c r="F389" t="s">
-        <v>320</v>
-      </c>
       <c r="G389" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="390" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C390" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D390" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E390" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="391" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C391" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D391" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E391" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="392" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C392" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D392" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E392" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="393" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C393" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D393" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E393" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="394" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C394" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D394" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E394" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="395" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C395" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D395" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E395" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="396" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C396" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D396" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E396" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="397" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C397" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D397" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E397" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="398" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C398" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D398" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E398" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="399" spans="3:7" x14ac:dyDescent="0.3">
@@ -9818,10 +9892,10 @@
         <v>164</v>
       </c>
       <c r="D399" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E399" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="400" spans="3:7" x14ac:dyDescent="0.3">
@@ -9829,10 +9903,10 @@
         <v>166</v>
       </c>
       <c r="D400" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E400" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="401" spans="3:7" x14ac:dyDescent="0.3">
@@ -9840,10 +9914,10 @@
         <v>218</v>
       </c>
       <c r="D401" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E401" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="402" spans="3:7" x14ac:dyDescent="0.3">
@@ -9851,10 +9925,10 @@
         <v>220</v>
       </c>
       <c r="D402" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E402" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="403" spans="3:7" x14ac:dyDescent="0.3">
@@ -9862,10 +9936,10 @@
         <v>222</v>
       </c>
       <c r="D403" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E403" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="404" spans="3:7" x14ac:dyDescent="0.3">
@@ -9873,123 +9947,123 @@
         <v>224</v>
       </c>
       <c r="D404" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E404" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="405" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C405" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D405" t="s">
         <v>3</v>
       </c>
       <c r="E405" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F405" t="s">
         <v>3</v>
       </c>
       <c r="G405" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="406" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C406" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D406" t="s">
         <v>25</v>
       </c>
       <c r="E406" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F406" t="s">
         <v>25</v>
       </c>
       <c r="G406" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="407" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C407" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D407" t="s">
         <v>57</v>
       </c>
       <c r="E407" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F407" t="s">
         <v>57</v>
       </c>
       <c r="G407" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="408" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C408" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D408" t="s">
         <v>55</v>
       </c>
       <c r="E408" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F408" t="s">
         <v>55</v>
       </c>
       <c r="G408" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="409" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C409" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D409" t="s">
         <v>103</v>
       </c>
       <c r="E409" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F409" t="s">
         <v>103</v>
       </c>
       <c r="G409" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="410" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C410" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D410" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E410" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F410" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G410" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="411" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C411" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D411" t="s">
         <v>76</v>
       </c>
       <c r="E411" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F411" t="s">
         <v>76</v>
@@ -10000,36 +10074,36 @@
     </row>
     <row r="412" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C412" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D412" t="s">
         <v>105</v>
       </c>
       <c r="E412" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F412" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G412" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="413" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C413" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D413" t="s">
         <v>105</v>
       </c>
       <c r="E413" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F413" t="s">
+        <v>327</v>
+      </c>
+      <c r="G413" t="s">
         <v>328</v>
-      </c>
-      <c r="G413" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="414" spans="3:7" x14ac:dyDescent="0.3">
@@ -10040,13 +10114,13 @@
         <v>79</v>
       </c>
       <c r="E414" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F414" t="s">
         <v>79</v>
       </c>
       <c r="G414" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="415" spans="3:7" x14ac:dyDescent="0.3">
@@ -10057,13 +10131,13 @@
         <v>121</v>
       </c>
       <c r="E415" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F415" t="s">
         <v>121</v>
       </c>
       <c r="G415" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="416" spans="3:7" x14ac:dyDescent="0.3">
@@ -10071,16 +10145,16 @@
         <v>138</v>
       </c>
       <c r="D416" t="s">
+        <v>322</v>
+      </c>
+      <c r="E416" t="s">
+        <v>683</v>
+      </c>
+      <c r="F416" t="s">
+        <v>322</v>
+      </c>
+      <c r="G416" t="s">
         <v>323</v>
-      </c>
-      <c r="E416" t="s">
-        <v>687</v>
-      </c>
-      <c r="F416" t="s">
-        <v>323</v>
-      </c>
-      <c r="G416" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="417" spans="3:7" x14ac:dyDescent="0.3">
@@ -10091,13 +10165,13 @@
         <v>206</v>
       </c>
       <c r="E417" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F417" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G417" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="418" spans="3:7" x14ac:dyDescent="0.3">
@@ -10108,13 +10182,13 @@
         <v>284</v>
       </c>
       <c r="E418" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F418" t="s">
         <v>284</v>
       </c>
       <c r="G418" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="419" spans="3:7" x14ac:dyDescent="0.3">
@@ -10122,16 +10196,16 @@
         <v>280</v>
       </c>
       <c r="D419" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E419" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F419" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G419" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="420" spans="3:7" x14ac:dyDescent="0.3">
@@ -10142,13 +10216,13 @@
         <v>281</v>
       </c>
       <c r="E420" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F420" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G420" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="421" spans="3:7" x14ac:dyDescent="0.3">
@@ -10159,10 +10233,10 @@
         <v>7</v>
       </c>
       <c r="E421" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F421" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G421" t="s">
         <v>8</v>
@@ -10176,13 +10250,13 @@
         <v>227</v>
       </c>
       <c r="E422" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F422" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G422" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/hw/rev1/FlightComputer.xlsx
+++ b/hw/rev1/FlightComputer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Private\src\FlightComputer\hw\rev1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FlightComputer\hw\rev1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06ED10A-EAC7-4CC2-AD8D-6A300A1F9199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E7476-A318-4770-BB92-8F7E8522D76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="405" windowWidth="22920" windowHeight="14655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="735" windowWidth="25320" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FlightComputer" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="772">
   <si>
     <t>Reference</t>
   </si>
@@ -2626,6 +2626,13 @@
     <t>TPS22917DBV
 TPS22918DBV</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLW-110-01-T-S</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM150808-8</t>
   </si>
 </sst>
 </file>
@@ -4319,10 +4326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:H424"/>
+  <dimension ref="C2:H431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H417" sqref="H417"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G432" sqref="G432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10693,6 +10700,21 @@
       </c>
       <c r="H424" t="s">
         <v>655</v>
+      </c>
+    </row>
+    <row r="429" spans="3:8">
+      <c r="G429" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="430" spans="3:8">
+      <c r="G430" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="431" spans="3:8">
+      <c r="G431" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>
